--- a/ExcelFiles/wolfssl.xlsx
+++ b/ExcelFiles/wolfssl.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyeedahmed/Desktop/Gitcode/LLMVerification/ExcelFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D652B41F-94CF-7346-8048-7B6BD10A4A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10020" yWindow="4120" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wolfssl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
   <si>
     <t>Commit Hash</t>
   </si>
@@ -417,13 +423,16 @@
   </si>
   <si>
     <t>Hmac_UpdateFinal</t>
+  </si>
+  <si>
+    <t>wolfSSL_X509_STORE_get0_objects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,13 +495,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -530,7 +547,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -564,6 +581,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -598,9 +616,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,14 +792,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -826,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -849,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -872,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -895,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -918,7 +939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -934,11 +955,14 @@
       <c r="E7" t="s">
         <v>98</v>
       </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
       <c r="G7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -961,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -984,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1073,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1162,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1185,7 +1209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1254,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
